--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,27 +436,21 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>4.090030569194725</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>-4.11977425520006</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -467,98 +461,71 @@
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>0.1110321191903019</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>-4.715480642250625</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>4.427373160049175</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>6.130685532900904</v>
+        <v>6.130685532900881</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>8.171687307827558</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>6.130685532900904</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>8.03322551738226</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>8.703939237318981</v>
+        <v>8.703939237319025</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>7.024938805895942</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>8.703939237318981</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>3.165505535041224</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>2.539548427141214</v>
+        <v>1.490702606731831</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>2.688274587589135</v>
+        <v>0.4454453461194552</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.6717944919448771</v>
+        <v>2.887668087172179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>4.911355197600598</v>
+        <v>3.498411812952029</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.9946838291217786</v>
+        <v>5.461771395837989</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>5.837587351923346</v>
+        <v>3.667647087004666</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>5.487340994505363</v>
+        <v>4.543069198269034</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>5.562499360312567</v>
+        <v>3.857137494611718</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>4.09237104505884</v>
+        <v>3.60208822706134</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.494748269944894</v>
+        <v>4.42512316868644</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>4.195080504802551</v>
+        <v>4.325618632128836</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>4.463171841920266</v>
+        <v>3.998755562728684</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.590028883910469</v>
+        <v>4.210645455310114</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>4.230623896992025</v>
+        <v>4.439146757103352</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>4.466929963999822</v>
+        <v>3.861679870292711</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>4.971431636697599</v>
+        <v>4.757571096183799</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>4.933871867981643</v>
+        <v>5.787381971961936</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>6.043140264557834</v>
+        <v>4.118094101621717</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.805114579758142</v>
+        <v>5.723509166364238</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.424737146793878</v>
+        <v>4.058053416301188</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.36938819563848</v>
+        <v>5.222860865675738</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.005038151193219</v>
+        <v>2.939060555390971</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.568710393603181</v>
+        <v>4.569144243718659</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>5.456119081407906</v>
+        <v>3.466212706516147</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>4.016715734612819</v>
+        <v>3.597750881470851</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.46372163173876</v>
+        <v>4.674926984813466</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>3.886160845343123</v>
+        <v>4.726969153629335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.394578533164361</v>
+        <v>3.038115835571786</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.0293693073427</v>
+        <v>1.154972712087221</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.918306187999509</v>
+        <v>3.124801698476176</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>3.346849276607955</v>
+        <v>3.370990011762443</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>3.033351895826453</v>
+        <v>3.843786543692795</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.1697522665757845</v>
+        <v>0.4167846160013644</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.489644219722376</v>
+        <v>1.125570778878981</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-9.121145393096574</v>
+        <v>-9.2489161297999</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>8.901016312581778</v>
+        <v>-10.65745199005891</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>3.311473853895319</v>
+        <v>-4.101394328717845</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-9.2489161297999</v>
+        <v>-1.861534891151506</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-1.417336502781907</v>
+        <v>3.108682697521514</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.7888645813307615</v>
+        <v>-1.488064879190421</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>6.664201294442429</v>
+        <v>3.63609986063671</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.9984771834683381</v>
+        <v>-1.287084480507283</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>6.640559540111668</v>
+        <v>4.124305474197043</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>6.859306473574622</v>
+        <v>3.801772939051373</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.287084480507283</v>
+        <v>1.920033066224791</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>5.684409614634189</v>
+        <v>2.774323849124349</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.213037610570945</v>
+        <v>1.712986619197032</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.580434652382626</v>
+        <v>2.431967849366434</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.969423516885649</v>
+        <v>1.494343500592232</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>5.449319663556662</v>
+        <v>1.882230726672129</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.101763629409859</v>
+        <v>0.9099262091262217</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.494343500592232</v>
+        <v>-0.07673633990846751</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>1.008942292657955</v>
+        <v>2.180844122535164</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.07497215279876901</v>
+        <v>-0.5717743519535134</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>4.040083433499064</v>
+        <v>1.732880403074311</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.6099727569748192</v>
+        <v>-0.6982718287330991</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>3.741282892331332</v>
+        <v>1.415512869596025</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.982193683323752</v>
+        <v>0.1232424362653362</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.6982718287330991</v>
+        <v>-0.5700058398449448</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.8104515225652476</v>
+        <v>1.804123797928292</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.6331955302210424</v>
+        <v>-0.2867681914691111</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>3.246859529593316</v>
+        <v>2.013081730696564</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.00883970647999055</v>
+        <v>-0.4137309550271362</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>3.914957842639755</v>
+        <v>1.790585695398428</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.755378915560413</v>
+        <v>1.743978804508384</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.4137309550271362</v>
+        <v>0.946259771301472</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>1.482352664753539</v>
+        <v>1.770613036357038</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.3259605486952699</v>
+        <v>0.4432539413513181</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.6483827323783498</v>
+        <v>1.364481450639365</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.2249761948293294</v>
+        <v>0.2267356977060819</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.1744462289204107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.2267356977060819</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>-0.1590727640771283</v>
+        <v>0.9098136509666066</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>11.13090654781821</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>4.672550446571067</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>-4.715480642250625</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-14.45332333832743</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>6.130685532900881</v>
+        <v>4.317520552235576</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>3.856664261949816</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>8.600536527919633</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>9.002271992040312</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>8.703939237319025</v>
+        <v>10.48563750975209</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>5.658864198748459</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>10.25770250047622</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>7.550992341868956</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>2.688274587589135</v>
+        <v>4.65880603412161</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.490702606731831</v>
+        <v>5.409232631930561</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>4.639893381363169</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.4454453461194552</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>2.887668087172179</v>
+        <v>5.799303245920884</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.9946838291217786</v>
+        <v>-0.8693696108860949</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>3.498411812952029</v>
+        <v>2.311254283099773</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.3058963467304165</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.461771395837989</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>3.667647087004666</v>
+        <v>2.638010271840896</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.562499360312567</v>
+        <v>4.057580120451165</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.543069198269034</v>
+        <v>3.242274909585041</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>4.068173739091874</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>3.857137494611718</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>3.60208822706134</v>
+        <v>5.156937396706884</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.195080504802551</v>
+        <v>3.942841799197594</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>4.42512316868644</v>
+        <v>3.826653192455631</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>4.984288257750213</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>4.325618632128836</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>3.998755562728684</v>
+        <v>3.4064284328156</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>4.230623896992025</v>
+        <v>2.435545128806416</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.210645455310114</v>
+        <v>4.047617271894799</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.878184267712912</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>4.439146757103352</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>3.861679870292711</v>
+        <v>2.129835064860464</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>4.933871867981643</v>
+        <v>4.218672000695523</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>4.757571096183799</v>
+        <v>4.02808863798465</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>4.695933104194339</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>5.787381971961936</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>4.118094101621717</v>
+        <v>5.022591279638045</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.723509166364238</v>
+        <v>7.356933926419673</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.058053416301188</v>
+        <v>4.456100749631386</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.222860865675738</v>
+        <v>4.174017263680696</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>2.939060555390971</v>
+        <v>2.074691389445271</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.456119081407906</v>
+        <v>5.32644934790627</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.569144243718659</v>
+        <v>3.123778338720062</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>4.892602738886098</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.466212706516147</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>3.597750881470851</v>
+        <v>0.6513682883433347</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.674926984813466</v>
+        <v>1.443764323860086</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>4.726969153629335</v>
+        <v>2.608754752952369</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.038115835571786</v>
+        <v>1.699348375745302</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.154972712087221</v>
+        <v>3.362240252406901</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.346849276607955</v>
+        <v>0.4648465628725118</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.124801698476176</v>
+        <v>0.4030385202844711</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>0.8049382522247184</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>3.370990011762443</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>3.843786543692795</v>
+        <v>3.036929265763488</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.4167846160013644</v>
+        <v>0.642635895824295</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.125570778878981</v>
+        <v>2.24075411271687</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-9.2489161297999</v>
+        <v>-2.856524424985296</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-10.65745199005891</v>
+        <v>0.1239622353166103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.2489161297999</v>
+        <v>-9.810777096850787</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-4.101394328717845</v>
+        <v>-4.291312636561706</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-8.784173899737169</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-1.861534891151506</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>3.108682697521514</v>
+        <v>1.573231731123359</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.488064879190421</v>
+        <v>5.992199201897175</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>3.63609986063671</v>
+        <v>3.59700023027214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.287084480507283</v>
+        <v>6.240787792289715</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.124305474197043</v>
+        <v>4.112367048326182</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.287084480507283</v>
+        <v>5.797134106720514</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.801772939051373</v>
+        <v>4.062819790119954</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>5.110501195359984</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>1.920033066224791</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>2.774323849124349</v>
+        <v>1.88131082127776</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.712986619197032</v>
+        <v>5.158753599182209</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.431967849366434</v>
+        <v>3.207070318919869</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.494343500592232</v>
+        <v>3.815916106066686</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.882230726672129</v>
+        <v>2.762663830671319</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.494343500592232</v>
+        <v>4.232564748995715</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.9099262091262217</v>
+        <v>2.257990710759383</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>5.120680133083599</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.07673633990846751</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>2.180844122535164</v>
+        <v>2.522545412785848</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.5717743519535134</v>
+        <v>1.135459337362521</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.732880403074311</v>
+        <v>2.746436727258894</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.6982718287330991</v>
+        <v>0.757583445265464</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.415512869596025</v>
+        <v>2.564429185896056</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.6982718287330991</v>
+        <v>0.08070151925247959</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.1232424362653362</v>
+        <v>1.796717073915977</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.5532735011319234</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.5700058398449448</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>1.804123797928292</v>
+        <v>-0.657715646732393</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.2867681914691111</v>
+        <v>-2.103425609777143</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.013081730696564</v>
+        <v>2.179038063425076</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.4137309550271362</v>
+        <v>-0.152046383567539</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.790585695398428</v>
+        <v>2.659925441240518</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.4137309550271362</v>
+        <v>-0.9685570952743805</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.743978804508384</v>
+        <v>1.778332450996523</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-1.069674659641462</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.946259771301472</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>1.770613036357038</v>
+        <v>0.5636794832278413</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.4432539413513181</v>
+        <v>-2.92939668194816</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.364481450639365</v>
+        <v>1.921265997709742</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.2267356977060819</v>
+        <v>-1.93082584212636</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.9098136509666066</v>
+        <v>2.2373336846083</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-2.436529450546909</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>1.970944416887122</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-9.810777096850787</v>
+        <v>-15.33178339326725</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-4.291312636561706</v>
+        <v>-32.76324525085026</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>1.573231731123359</v>
+        <v>-3.95946710867876</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>5.992199201897175</v>
+        <v>2.429847496219417</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>3.59700023027214</v>
+        <v>1.792810877347839</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>6.240787792289715</v>
+        <v>5.869785355670865</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.112367048326182</v>
+        <v>3.605326579534629</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>5.797134106720514</v>
+        <v>5.67109238894663</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.062819790119954</v>
+        <v>3.828499188795353</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.88131082127776</v>
+        <v>2.81586082900589</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>5.158753599182209</v>
+        <v>6.606153085595312</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.207070318919869</v>
+        <v>3.745097222851923</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>3.815916106066686</v>
+        <v>3.914343708692569</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.762663830671319</v>
+        <v>3.13932694169754</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.232564748995715</v>
+        <v>4.516872489640855</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.257990710759383</v>
+        <v>2.877342779351988</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.522545412785848</v>
+        <v>3.315588342229536</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.135459337362521</v>
+        <v>2.167139024648912</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.746436727258894</v>
+        <v>3.134745001805284</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.757583445265464</v>
+        <v>1.294257050558856</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.564429185896056</v>
+        <v>2.917701676058626</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.08070151925247959</v>
+        <v>0.307814096704262</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.796717073915977</v>
+        <v>2.262351844311405</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.657715646732393</v>
+        <v>1.164216590036715</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.103425609777143</v>
+        <v>-1.085416662684091</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.179038063425076</v>
+        <v>2.519656924298674</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.152046383567539</v>
+        <v>-0.5115946691845119</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>2.659925441240518</v>
+        <v>2.469032409329386</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9685570952743805</v>
+        <v>-0.7472201672602652</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.778332450996523</v>
+        <v>2.224195982330812</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.5636794832278413</v>
+        <v>1.225642290422613</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-2.92939668194816</v>
+        <v>-1.489818204583271</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.921265997709742</v>
+        <v>2.303489066780262</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.93082584212636</v>
+        <v>-1.623731782294058</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.2373336846083</v>
+        <v>2.46173380616781</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-2.436529450546909</v>
+        <v>-2.363600739745275</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>1.970944416887122</v>
+        <v>2.117909860585021</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>11.13090654781821</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>4.672550446571067</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -473,7 +467,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-14.45332333832743</v>
+        <v>-14.45332333832744</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -504,13 +498,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>8.600536527919633</v>
+        <v>8.600536527919612</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>9.002271992040312</v>
+        <v>9.002271992040356</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -521,13 +515,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>10.48563750975209</v>
+        <v>10.48563750975204</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>5.658864198748459</v>
+        <v>5.658864198748481</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,7 +538,7 @@
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>7.550992341868956</v>
+        <v>7.550992341868912</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -555,13 +549,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>4.65880603412161</v>
+        <v>4.658806034121588</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>5.409232631930561</v>
+        <v>5.409232631930538</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -572,13 +566,13 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>4.639893381363169</v>
+        <v>4.639893381363192</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>5.799303245920884</v>
+        <v>5.799303245920906</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,7 +589,7 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>2.311254283099773</v>
+        <v>2.311254283099795</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,7 +606,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>2.638010271840896</v>
+        <v>2.638010271840918</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -623,7 +617,7 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.057580120451165</v>
+        <v>4.057580120451143</v>
       </c>
       <c r="D15">
         <v>2015</v>
@@ -657,13 +651,13 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>3.942841799197594</v>
+        <v>3.942841799197616</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>3.826653192455631</v>
+        <v>3.826653192455653</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -691,13 +685,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.435545128806416</v>
+        <v>2.435545128806438</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.047617271894799</v>
+        <v>4.047617271894777</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,7 +708,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>2.129835064860464</v>
+        <v>2.129835064860441</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -742,7 +736,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>4.695933104194339</v>
+        <v>4.695933104194361</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -793,7 +787,7 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.32644934790627</v>
+        <v>5.326449347906292</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -844,13 +838,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.699348375745302</v>
+        <v>1.69934837574528</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.362240252406901</v>
+        <v>3.362240252406923</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -895,7 +889,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.642635895824295</v>
+        <v>0.6426358958243172</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -929,13 +923,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-15.33178339326725</v>
+        <v>-15.33178339326724</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-32.76324525085026</v>
+        <v>-32.76324525085027</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -997,13 +991,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>5.67109238894663</v>
+        <v>5.671092388946652</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.828499188795353</v>
+        <v>3.828499188795376</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1071,7 +1065,7 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.877342779351988</v>
+        <v>2.87734277935201</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1082,13 +1076,13 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>5.120680133083599</v>
+        <v>5.120680133083622</v>
       </c>
       <c r="D42">
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>3.315588342229536</v>
+        <v>3.315588342229514</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1122,7 +1116,7 @@
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.917701676058626</v>
+        <v>2.917701676058604</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1127,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.307814096704262</v>
+        <v>0.3078140967042398</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.262351844311405</v>
+        <v>2.262351844311428</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1150,7 +1144,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.5532735011319234</v>
+        <v>-0.5532735011319123</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1190,7 +1184,7 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>2.469032409329386</v>
+        <v>2.469032409329408</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1235,7 +1229,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-1.489818204583271</v>
+        <v>-1.489818204583293</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1252,13 +1246,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.623731782294058</v>
+        <v>-1.623731782294036</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.46173380616781</v>
+        <v>2.461733806167832</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,7 +1269,7 @@
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>2.117909860585021</v>
+        <v>2.117909860584999</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_EXPORT_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>2.117909860584999</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-2.451276118722334</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>1.795477855501626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
